--- a/添付資料⑤.xlsx
+++ b/添付資料⑤.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/home/9720514486/Desktop/卒論最終版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/home/9720514486/-/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>「三手まで記憶する」</t>
   </si>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>「切り替え戦法（記憶する→打ちやすいもの）」</t>
-  </si>
-  <si>
-    <t>「打ちやすいものを叩く」</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>player2＝思い切り型</t>
@@ -55,30 +51,59 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>両プレイヤーとも初期動作のアルゴリズムでの確率が[0.25,0.25,0.25,0.25]の時の試合でplayer1の勝率を表している</t>
+    <rPh sb="0" eb="1">
+      <t>リョウプレイヤ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ショk</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクリt</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>トk</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アラワs</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「切り替え戦法（記憶する→打ちやすいもの）」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「切り替え戦法（打ちやすいもの→記憶する）」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>「三手まで記憶する」</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「切り替え戦法（打ちやすいもの→記憶する）」</t>
+    <t>「打ちやすいものを叩く」</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「切り替え戦法（記憶する→打ちやすいもの）」</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>player1の勝率</t>
-    <rPh sb="8" eb="10">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>player1＝バランス型</t>
+    <rPh sb="12" eb="13">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,10 +133,24 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="3"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -132,24 +171,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -424,135 +465,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6.27</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3.83</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6.27</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6.38</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5.69</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.88</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.54</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.97</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.33</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.55</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5.49</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5.69</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4.57</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5.88</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5.54</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.66</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4.33</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
